--- a/December2020/CHANDA.xlsx
+++ b/December2020/CHANDA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SHASHI PAY PHONE-(661176231)" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="satyam mobile-(661811583)" sheetId="4" r:id="rId3"/>
     <sheet name="ARYANS PRINTER-(662074228)" sheetId="5" r:id="rId4"/>
     <sheet name="RAJU TELECOM-(661673669)" sheetId="6" r:id="rId5"/>
+    <sheet name="MAA TELECOM-(661361714)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="20">
   <si>
     <t>SHASHI PAY PHONE-(661176231)</t>
   </si>
@@ -32,12 +33,12 @@
     <t>Receive Amount</t>
   </si>
   <si>
+    <t>Transaction Type</t>
+  </si>
+  <si>
     <t>Dues Amount</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Remarks</t>
   </si>
   <si>
@@ -75,6 +76,9 @@
   </si>
   <si>
     <t>RAJU TELECOM-(661673669)</t>
+  </si>
+  <si>
+    <t>MAA TELECOM-(661361714)</t>
   </si>
 </sst>
 </file>
@@ -83,10 +87,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -118,10 +122,33 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,22 +161,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,6 +176,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -172,53 +237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,21 +250,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -274,181 +278,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,6 +469,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,11 +511,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,41 +550,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,148 +574,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,15 +1072,16 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17" style="7" customWidth="1"/>
     <col min="2" max="2" width="18" style="7" customWidth="1"/>
-    <col min="3" max="4" width="16.8571428571429" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.8571428571429" style="7" customWidth="1"/>
     <col min="6" max="6" width="14" style="7" customWidth="1"/>
     <col min="7" max="16382" width="9.14285714285714" style="7"/>
     <col min="16383" max="16384" width="9.14285714285714" style="8"/>
@@ -1114,11 +1119,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1129,26 +1134,25 @@
       <c r="B4" s="1">
         <v>2080</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
         <v>2000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="5">
         <v>44170</v>
       </c>
-      <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>2000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
@@ -1158,11 +1162,11 @@
       <c r="B6" s="1">
         <v>10400</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
         <v>10000</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" s="7" customFormat="1" spans="1:5">
@@ -1172,11 +1176,11 @@
       <c r="B7" s="7">
         <v>5200</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7">
         <v>15000</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" s="7" customFormat="1" spans="1:5">
@@ -1186,15 +1190,26 @@
       <c r="C8" s="7">
         <v>15000</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" s="7" customFormat="1" spans="1:1">
-      <c r="A9" s="9"/>
+    </row>
+    <row r="9" s="7" customFormat="1" spans="1:5">
+      <c r="A9" s="5">
+        <v>44174</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5200</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5000</v>
+      </c>
     </row>
     <row r="10" s="7" customFormat="1"/>
     <row r="11" s="7" customFormat="1"/>
@@ -1273,7 +1288,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1281,8 +1296,8 @@
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
@@ -1316,11 +1331,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1331,12 +1346,11 @@
       <c r="B4" s="1">
         <v>2080</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
         <v>2000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
@@ -1346,11 +1360,11 @@
       <c r="B5" s="1">
         <v>1040</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
         <v>3000</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
@@ -1360,11 +1374,11 @@
       <c r="B6" s="1">
         <v>1040</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
         <v>4000</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
@@ -1374,11 +1388,11 @@
       <c r="B7" s="1">
         <v>1040</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
         <v>5000</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
@@ -1388,26 +1402,25 @@
       <c r="B8" s="1">
         <v>1040</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
         <v>6000</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5">
         <v>44171</v>
       </c>
-      <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>3000</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1">
         <v>3000</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1417,11 +1430,11 @@
       <c r="C10" s="1">
         <v>1000</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1">
         <v>2000</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1431,11 +1444,11 @@
       <c r="C11" s="1">
         <v>2000</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1">
         <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1445,11 +1458,11 @@
       <c r="B12" s="1">
         <v>3120</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1">
         <v>3000</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1467,7 +1480,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1475,8 +1488,8 @@
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
@@ -1511,11 +1524,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1526,11 +1539,11 @@
       <c r="B4" s="1">
         <v>1040</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
         <v>1000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1540,11 +1553,11 @@
       <c r="C5" s="1">
         <v>1000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1566,7 +1579,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1574,8 +1587,8 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
@@ -1610,11 +1623,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1625,26 +1638,25 @@
       <c r="B4" s="1">
         <v>2080</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
         <v>2000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="5">
         <v>44170</v>
       </c>
-      <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>2000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:1">
@@ -1665,8 +1677,8 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1674,8 +1686,8 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
@@ -1710,11 +1722,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1725,11 +1737,11 @@
       <c r="B4" s="1">
         <v>3120</v>
       </c>
-      <c r="D4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3000</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
@@ -1739,15 +1751,113 @@
       <c r="C5" s="1">
         <v>3000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:1">
       <c r="A6" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="5">
+        <v>44174</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1040</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="5">
+        <v>44175</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2080</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
